--- a/ATUReports/Results/Run_4/(ATUReports) Run_4.xlsx
+++ b/ATUReports/Results/Run_4/(ATUReports) Run_4.xlsx
@@ -14,12 +14,13 @@
     <sheet name="ATU_TC_4" r:id="rId8" sheetId="6"/>
     <sheet name="ATU_TC_5" r:id="rId9" sheetId="7"/>
     <sheet name="ATU_TC_6" r:id="rId10" sheetId="8"/>
+    <sheet name="ATU_TC_7" r:id="rId11" sheetId="9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="259">
   <si>
     <t>Total Test Cases</t>
   </si>
@@ -60,7 +61,7 @@
     <t>BatchExecution</t>
   </si>
   <si>
-    <t>Script_Execution_Transpose</t>
+    <t>UpdateVMScenario</t>
   </si>
   <si>
     <t>cNetLoginScenario</t>
@@ -69,244 +70,733 @@
     <t>1</t>
   </si>
   <si>
+    <t>9 Sec</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>ATU_TC_1</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_VMWare_DEV63</t>
+  </si>
+  <si>
+    <t>24 Milli Sec</t>
+  </si>
+  <si>
+    <t>ATU_TC_2</t>
+  </si>
+  <si>
+    <t>cNetLogoutScenario</t>
+  </si>
+  <si>
+    <t>4 Sec</t>
+  </si>
+  <si>
+    <t>ATU_TC_3</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_OpenStack_Dev63</t>
+  </si>
+  <si>
+    <t>134 Sec</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>ATU_TC_4</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_OpenStack_Dev59</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>121 Sec</t>
+  </si>
+  <si>
+    <t>ATU_TC_5</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_OpenStack_Dev91</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>117 Sec</t>
+  </si>
+  <si>
+    <t>ATU_TC_6</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_OpenStack_Dev13</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>127 Sec</t>
+  </si>
+  <si>
+    <t>ATU_TC_7</t>
+  </si>
+  <si>
+    <t>Step Description</t>
+  </si>
+  <si>
+    <t>Input Value</t>
+  </si>
+  <si>
+    <t>Expected value</t>
+  </si>
+  <si>
+    <t>Actual Value</t>
+  </si>
+  <si>
+    <t>Line No</t>
+  </si>
+  <si>
+    <t>Screenshot</t>
+  </si>
+  <si>
+    <t>Passing URL in to browser</t>
+  </si>
+  <si>
+    <t>https://cnetglobaldemo1.service-now.com/</t>
+  </si>
+  <si>
+    <t>URL Should be passed in to browser</t>
+  </si>
+  <si>
+    <t>URL Launched successfully</t>
+  </si>
+  <si>
+    <t>8 Sec</t>
+  </si>
+  <si>
+    <t>549</t>
+  </si>
+  <si>
+    <t>Swicthing to Main Frame</t>
+  </si>
+  <si>
+    <t>gsft_main</t>
+  </si>
+  <si>
+    <t>Main Frame should be activited</t>
+  </si>
+  <si>
+    <t>Mainframe actitivited</t>
+  </si>
+  <si>
+    <t>182 Milli Sec</t>
+  </si>
+  <si>
+    <t>Click on Username</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>Username should be clicked</t>
+  </si>
+  <si>
+    <t>UserName clicked successfully</t>
+  </si>
+  <si>
+    <t>228 Milli Sec</t>
+  </si>
+  <si>
+    <t>Passing value in to username</t>
+  </si>
+  <si>
+    <t>maneeshn</t>
+  </si>
+  <si>
+    <t>Username should be entered</t>
+  </si>
+  <si>
+    <t>Username should be passed successfully</t>
+  </si>
+  <si>
+    <t>170 Milli Sec</t>
+  </si>
+  <si>
+    <t>Click on Password</t>
+  </si>
+  <si>
+    <t>user_password</t>
+  </si>
+  <si>
+    <t>Password should be clicked</t>
+  </si>
+  <si>
+    <t>Password clicked successfully</t>
+  </si>
+  <si>
+    <t>197 Milli Sec</t>
+  </si>
+  <si>
+    <t>Passing value in to Password</t>
+  </si>
+  <si>
+    <t>Maneeshnama@6468</t>
+  </si>
+  <si>
+    <t>Password should be entered</t>
+  </si>
+  <si>
+    <t>Password should be passed successfully</t>
+  </si>
+  <si>
+    <t>260 Milli Sec</t>
+  </si>
+  <si>
+    <t>Click on Login button</t>
+  </si>
+  <si>
+    <t>sysverb_login</t>
+  </si>
+  <si>
+    <t>Login button should be clicked</t>
+  </si>
+  <si>
+    <t>Login button clicked succesfully</t>
+  </si>
+  <si>
+    <t>Go To TestSuite Sheet</t>
+  </si>
+  <si>
+    <t>2 Sec</t>
+  </si>
+  <si>
+    <t>Passed AIMS in FilterNavigator</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>Find AIMS in search Navigator</t>
+  </si>
+  <si>
+    <t>Search Successful</t>
+  </si>
+  <si>
     <t>7 Sec</t>
   </si>
   <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>ATU_TC_1</t>
-  </si>
-  <si>
-    <t>cNetLogoutScenario</t>
-  </si>
-  <si>
-    <t>145 Milli Sec</t>
-  </si>
-  <si>
-    <t>ATU_TC_2</t>
-  </si>
-  <si>
-    <t>UpdateVM_Dallas_Update_Openstack_DEV63</t>
+    <t>clicked on launch Application</t>
+  </si>
+  <si>
+    <t>330b36b5134e7600aee43d7ed144b09a</t>
+  </si>
+  <si>
+    <t>Launch AIMS Application</t>
+  </si>
+  <si>
+    <t>Clicked Successful</t>
+  </si>
+  <si>
+    <t>107 Milli Sec</t>
+  </si>
+  <si>
+    <t>Clicked the UpdateVM</t>
+  </si>
+  <si>
+    <t>.//*[@id='xea03cb9a0ff53600d6254c6be1050e89']/div/div[2]/a[2]</t>
+  </si>
+  <si>
+    <t>Select UpdateVM from AIMS</t>
+  </si>
+  <si>
+    <t>Successfully Selected</t>
+  </si>
+  <si>
+    <t>Type of ServerOperation Field Choosen</t>
+  </si>
+  <si>
+    <t>IO:eba29ee80f0a7e00d6254c6be1050ec2</t>
+  </si>
+  <si>
+    <t>Select Update Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ServerOperation field was successfully selected </t>
+  </si>
+  <si>
+    <t>16 Sec</t>
+  </si>
+  <si>
+    <t>Selected Project lookup field</t>
+  </si>
+  <si>
+    <t>.//*[@id='lookup.IO:32a1cc970fa97200d6254c6be1050e8d']</t>
+  </si>
+  <si>
+    <t>Hit the Project LookupField</t>
+  </si>
+  <si>
+    <t>Successfully selected</t>
+  </si>
+  <si>
+    <t>528 Milli Sec</t>
+  </si>
+  <si>
+    <t>1 Sec</t>
+  </si>
+  <si>
+    <t>Selected PrimaryDataCenter lookup field</t>
+  </si>
+  <si>
+    <t>.//*[@id='lookup.IO:cbd3081b0fa97200d6254c6be1050e43']</t>
+  </si>
+  <si>
+    <t>Hit the PrimaryDataCenter LookupField</t>
+  </si>
+  <si>
+    <t>PrimaryDataCenterServerOperation field was successfully selected</t>
+  </si>
+  <si>
+    <t>376 Milli Sec</t>
+  </si>
+  <si>
+    <t>Dallas Was Selected</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>Choose one PrimarydataCenter</t>
+  </si>
+  <si>
+    <t>153 Milli Sec</t>
+  </si>
+  <si>
+    <t>Selected PrimaryCloudPlatform lookup field</t>
+  </si>
+  <si>
+    <t>.//*[@id='lookup.IO:fbb4449b0fa97200d6254c6be1050e58']</t>
+  </si>
+  <si>
+    <t>Hit the PrimaryCloudPlatform LookupField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrimaryCloudPlatform field was successfully selected </t>
+  </si>
+  <si>
+    <t>866 Milli Sec</t>
+  </si>
+  <si>
+    <t>Choosen PrimaryCloud Field</t>
+  </si>
+  <si>
+    <t>OpenStack</t>
+  </si>
+  <si>
+    <t>Choose PrimaryCloud Field</t>
+  </si>
+  <si>
+    <t>199 Milli Sec</t>
+  </si>
+  <si>
+    <t>Selected cluster field</t>
+  </si>
+  <si>
+    <t>.//*[@id='lookup.IO:ef95dc9b0fe97200d6254c6be1050e4a']</t>
+  </si>
+  <si>
+    <t>click on Cluster Lookup field</t>
+  </si>
+  <si>
+    <t>Successfully hit the field</t>
+  </si>
+  <si>
+    <t>694 Milli Sec</t>
+  </si>
+  <si>
+    <t>Selected OpenStack-Aims</t>
+  </si>
+  <si>
+    <t>OpenStack-AIMS-CNET-01</t>
+  </si>
+  <si>
+    <t>Select one Cluster</t>
+  </si>
+  <si>
+    <t>Cluster select Successful</t>
+  </si>
+  <si>
+    <t>189 Milli Sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected Server field </t>
+  </si>
+  <si>
+    <t>//a[@id='lookup.IO:92e0e0570f2d7200d6254c6be1050e8d']</t>
+  </si>
+  <si>
+    <t>click on Server Lookup field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected DEV-LNX-APACHE-63 </t>
+  </si>
+  <si>
+    <t>DEV-LNX-APACHE-63</t>
+  </si>
+  <si>
+    <t>Select One Server</t>
+  </si>
+  <si>
+    <t>Server Select Successful</t>
+  </si>
+  <si>
+    <t>Selected Service Size</t>
+  </si>
+  <si>
+    <t>t2.micro</t>
+  </si>
+  <si>
+    <t>Select one Size</t>
+  </si>
+  <si>
+    <t>Select Successful</t>
+  </si>
+  <si>
+    <t>251 Milli Sec</t>
+  </si>
+  <si>
+    <t>Selected Additional Storage</t>
+  </si>
+  <si>
+    <t>IO:63efc4570fe97200d6254c6be1050e91</t>
+  </si>
+  <si>
+    <t>You need addition storage??</t>
+  </si>
+  <si>
+    <t>Yes Selected</t>
+  </si>
+  <si>
+    <t>386 Milli Sec</t>
+  </si>
+  <si>
+    <t>Selected NetApp Storage provider</t>
+  </si>
+  <si>
+    <t>IO:3b0298d70fe97200d6254c6be1050e05</t>
+  </si>
+  <si>
+    <t>Select Storage Provider</t>
+  </si>
+  <si>
+    <t>Select Successfull</t>
+  </si>
+  <si>
+    <t>300 Milli Sec</t>
+  </si>
+  <si>
+    <t>Provided Storage Name</t>
+  </si>
+  <si>
+    <t>IO:8a82501b0fe97200d6254c6be1050e6f</t>
+  </si>
+  <si>
+    <t>Provide Storge name</t>
+  </si>
+  <si>
+    <t>Successful</t>
+  </si>
+  <si>
+    <t>582 Milli Sec</t>
+  </si>
+  <si>
+    <t>Provided AggregateName</t>
+  </si>
+  <si>
+    <t>IO:82d2501b0fe97200d6254c6be1050e75</t>
+  </si>
+  <si>
+    <t>Provide Aggregate name</t>
+  </si>
+  <si>
+    <t>517 Milli Sec</t>
+  </si>
+  <si>
+    <t>Provided VServerId</t>
+  </si>
+  <si>
+    <t>IO:c8b2101b0fe97200d6254c6be1050ed3</t>
+  </si>
+  <si>
+    <t>Provide VServerId</t>
+  </si>
+  <si>
+    <t>421 Milli Sec</t>
+  </si>
+  <si>
+    <t>Entered 30</t>
+  </si>
+  <si>
+    <t>IO:dbf2101b0fe97200d6254c6be1050edd</t>
+  </si>
+  <si>
+    <t>prvoide Size</t>
+  </si>
+  <si>
+    <t>319 Milli Sec</t>
+  </si>
+  <si>
+    <t>Selected SizeUnit</t>
+  </si>
+  <si>
+    <t>IO:0213581b0fe97200d6254c6be1050e4d</t>
+  </si>
+  <si>
+    <t>Select SizeUnit</t>
+  </si>
+  <si>
+    <t>247 Milli Sec</t>
+  </si>
+  <si>
+    <t>127 Milli Sec</t>
+  </si>
+  <si>
+    <t>Clicked OrderNow</t>
+  </si>
+  <si>
+    <t>oi_order_now_button</t>
+  </si>
+  <si>
+    <t>Place Your order</t>
+  </si>
+  <si>
+    <t>17 Sec</t>
+  </si>
+  <si>
+    <t>129 Milli Sec</t>
+  </si>
+  <si>
+    <t>Error Occurred: Please Check the Logs</t>
+  </si>
+  <si>
+    <t>70 Sec</t>
+  </si>
+  <si>
+    <t>557</t>
+  </si>
+  <si>
+    <t>81 Milli Sec</t>
+  </si>
+  <si>
+    <t>925 Milli Sec</t>
+  </si>
+  <si>
+    <t>109 Milli Sec</t>
   </si>
   <si>
     <t>3 Sec</t>
   </si>
   <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>ATU_TC_3</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>73 Milli Sec</t>
-  </si>
-  <si>
-    <t>ATU_TC_4</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>151 Milli Sec</t>
-  </si>
-  <si>
-    <t>ATU_TC_5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>42 Milli Sec</t>
-  </si>
-  <si>
-    <t>ATU_TC_6</t>
-  </si>
-  <si>
-    <t>Step Description</t>
-  </si>
-  <si>
-    <t>Input Value</t>
-  </si>
-  <si>
-    <t>Expected value</t>
-  </si>
-  <si>
-    <t>Actual Value</t>
-  </si>
-  <si>
-    <t>Line No</t>
-  </si>
-  <si>
-    <t>Screenshot</t>
-  </si>
-  <si>
-    <t>Passing URL in to browser</t>
-  </si>
-  <si>
-    <t>https://cnetglobaldemo1.service-now.com/</t>
-  </si>
-  <si>
-    <t>URL Should be passed in to browser</t>
-  </si>
-  <si>
-    <t>URL Launched successfully</t>
-  </si>
-  <si>
-    <t>549</t>
-  </si>
-  <si>
-    <t>Swicthing to Main Frame</t>
-  </si>
-  <si>
-    <t>gsft_main</t>
-  </si>
-  <si>
-    <t>Main Frame should be activited</t>
-  </si>
-  <si>
-    <t>Mainframe actitivited</t>
-  </si>
-  <si>
-    <t>159 Milli Sec</t>
-  </si>
-  <si>
-    <t>Click on Username</t>
-  </si>
-  <si>
-    <t>user_name</t>
-  </si>
-  <si>
-    <t>Username should be clicked</t>
-  </si>
-  <si>
-    <t>UserName clicked successfully</t>
-  </si>
-  <si>
-    <t>254 Milli Sec</t>
-  </si>
-  <si>
-    <t>Passing value in to username</t>
-  </si>
-  <si>
-    <t>maneeshn</t>
-  </si>
-  <si>
-    <t>Username should be entered</t>
-  </si>
-  <si>
-    <t>Username should be passed successfully</t>
-  </si>
-  <si>
-    <t>196 Milli Sec</t>
-  </si>
-  <si>
-    <t>Click on Password</t>
-  </si>
-  <si>
-    <t>user_password</t>
-  </si>
-  <si>
-    <t>Password should be clicked</t>
-  </si>
-  <si>
-    <t>Password clicked successfully</t>
-  </si>
-  <si>
-    <t>218 Milli Sec</t>
-  </si>
-  <si>
-    <t>Passing value in to Password</t>
-  </si>
-  <si>
-    <t>Maneeshnama@6468</t>
-  </si>
-  <si>
-    <t>Password should be entered</t>
-  </si>
-  <si>
-    <t>Password should be passed successfully</t>
-  </si>
-  <si>
-    <t>251 Milli Sec</t>
-  </si>
-  <si>
-    <t>Click on Login button</t>
-  </si>
-  <si>
-    <t>sysverb_login</t>
-  </si>
-  <si>
-    <t>Login button should be clicked</t>
-  </si>
-  <si>
-    <t>Login button clicked succesfully</t>
-  </si>
-  <si>
-    <t>2 Sec</t>
-  </si>
-  <si>
-    <t>Go To TestSuite Sheet</t>
-  </si>
-  <si>
-    <t>1 Sec</t>
-  </si>
-  <si>
-    <t>Passed AIMS in FilterNavigator</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>Find AIMS in search Navigator</t>
-  </si>
-  <si>
-    <t>Search Successful</t>
-  </si>
-  <si>
-    <t>clicked on launch Application</t>
-  </si>
-  <si>
-    <t>330b36b5134e7600aee43d7ed144b09a</t>
-  </si>
-  <si>
-    <t>Launch AIMS Application</t>
-  </si>
-  <si>
-    <t>Error Occurred: Please Check the Logs</t>
-  </si>
-  <si>
-    <t>69 Milli Sec</t>
-  </si>
-  <si>
-    <t>557</t>
-  </si>
-  <si>
-    <t>Clicked the UpdateVM</t>
-  </si>
-  <si>
-    <t>.//*[@id='xea03cb9a0ff53600d6254c6be1050e89']/div/div[2]/a[2]</t>
-  </si>
-  <si>
-    <t>Select UpdateVM from AIMS</t>
-  </si>
-  <si>
-    <t>38 Milli Sec</t>
-  </si>
-  <si>
-    <t>97 Milli Sec</t>
-  </si>
-  <si>
-    <t>139 Milli Sec</t>
-  </si>
-  <si>
-    <t>74 Milli Sec</t>
+    <t>12 Sec</t>
+  </si>
+  <si>
+    <t>433 Milli Sec</t>
+  </si>
+  <si>
+    <t>560 Milli Sec</t>
+  </si>
+  <si>
+    <t>85 Milli Sec</t>
+  </si>
+  <si>
+    <t>714 Milli Sec</t>
+  </si>
+  <si>
+    <t>122 Milli Sec</t>
+  </si>
+  <si>
+    <t>941 Milli Sec</t>
+  </si>
+  <si>
+    <t>117 Milli Sec</t>
+  </si>
+  <si>
+    <t>DEV-LNX-APACHE-59</t>
+  </si>
+  <si>
+    <t>147 Milli Sec</t>
+  </si>
+  <si>
+    <t>t2.nano</t>
+  </si>
+  <si>
+    <t>293 Milli Sec</t>
+  </si>
+  <si>
+    <t>380 Milli Sec</t>
+  </si>
+  <si>
+    <t>295 Milli Sec</t>
+  </si>
+  <si>
+    <t>627 Milli Sec</t>
+  </si>
+  <si>
+    <t>561 Milli Sec</t>
+  </si>
+  <si>
+    <t>451 Milli Sec</t>
+  </si>
+  <si>
+    <t>340 Milli Sec</t>
+  </si>
+  <si>
+    <t>253 Milli Sec</t>
+  </si>
+  <si>
+    <t>51 Milli Sec</t>
+  </si>
+  <si>
+    <t>108 Milli Sec</t>
+  </si>
+  <si>
+    <t>64 Milli Sec</t>
+  </si>
+  <si>
+    <t>114 Milli Sec</t>
+  </si>
+  <si>
+    <t>5 Sec</t>
+  </si>
+  <si>
+    <t>10 Sec</t>
+  </si>
+  <si>
+    <t>356 Milli Sec</t>
+  </si>
+  <si>
+    <t>102 Milli Sec</t>
+  </si>
+  <si>
+    <t>835 Milli Sec</t>
+  </si>
+  <si>
+    <t>90 Milli Sec</t>
+  </si>
+  <si>
+    <t>892 Milli Sec</t>
+  </si>
+  <si>
+    <t>105 Milli Sec</t>
+  </si>
+  <si>
+    <t>855 Milli Sec</t>
+  </si>
+  <si>
+    <t>DEV-LNX-APACHE-91</t>
+  </si>
+  <si>
+    <t>76 Milli Sec</t>
+  </si>
+  <si>
+    <t>t2.small</t>
+  </si>
+  <si>
+    <t>345 Milli Sec</t>
+  </si>
+  <si>
+    <t>209 Milli Sec</t>
+  </si>
+  <si>
+    <t>393 Milli Sec</t>
+  </si>
+  <si>
+    <t>287 Milli Sec</t>
+  </si>
+  <si>
+    <t>193 Milli Sec</t>
+  </si>
+  <si>
+    <t>185 Milli Sec</t>
+  </si>
+  <si>
+    <t>29 Milli Sec</t>
+  </si>
+  <si>
+    <t>14 Sec</t>
+  </si>
+  <si>
+    <t>59 Milli Sec</t>
+  </si>
+  <si>
+    <t>87 Milli Sec</t>
+  </si>
+  <si>
+    <t>840 Milli Sec</t>
+  </si>
+  <si>
+    <t>84 Milli Sec</t>
+  </si>
+  <si>
+    <t>19 Sec</t>
+  </si>
+  <si>
+    <t>465 Milli Sec</t>
+  </si>
+  <si>
+    <t>375 Milli Sec</t>
+  </si>
+  <si>
+    <t>698 Milli Sec</t>
+  </si>
+  <si>
+    <t>268 Milli Sec</t>
+  </si>
+  <si>
+    <t>914 Milli Sec</t>
+  </si>
+  <si>
+    <t>137 Milli Sec</t>
+  </si>
+  <si>
+    <t>DEV-LNX-GRAPAHANA-13</t>
+  </si>
+  <si>
+    <t>143 Milli Sec</t>
+  </si>
+  <si>
+    <t>272 Milli Sec</t>
+  </si>
+  <si>
+    <t>347 Milli Sec</t>
+  </si>
+  <si>
+    <t>366 Milli Sec</t>
+  </si>
+  <si>
+    <t>596 Milli Sec</t>
+  </si>
+  <si>
+    <t>554 Milli Sec</t>
+  </si>
+  <si>
+    <t>397 Milli Sec</t>
+  </si>
+  <si>
+    <t>302 Milli Sec</t>
+  </si>
+  <si>
+    <t>238 Milli Sec</t>
+  </si>
+  <si>
+    <t>61 Milli Sec</t>
+  </si>
+  <si>
+    <t>94 Milli Sec</t>
   </si>
 </sst>
 </file>
@@ -314,13 +804,63 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="77">
+  <fonts count="87">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -822,7 +1362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
@@ -880,7 +1420,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
@@ -892,7 +1432,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
@@ -904,9 +1448,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -928,12 +1469,12 @@
     <xf numFmtId="0" fontId="30" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -955,12 +1496,12 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -982,12 +1523,12 @@
     <xf numFmtId="0" fontId="48" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="51" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1009,12 +1550,12 @@
     <xf numFmtId="0" fontId="57" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="60" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1036,12 +1577,12 @@
     <xf numFmtId="0" fontId="66" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="67" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="69" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1063,7 +1604,37 @@
     <xf numFmtId="0" fontId="75" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="76" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1132,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="2">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="2">
@@ -1140,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -1282,10 +1853,10 @@
         <v>23</v>
       </c>
       <c r="G4" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s" s="22">
         <v>24</v>
-      </c>
-      <c r="H4" t="s" s="22">
-        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -1299,19 +1870,19 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s" s="23">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s" s="24">
         <v>28</v>
-      </c>
-      <c r="G5" t="s" s="23">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s" s="24">
-        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -1325,7 +1896,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
@@ -1334,36 +1905,62 @@
         <v>31</v>
       </c>
       <c r="G6" t="s" s="25">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s" s="26">
         <v>32</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n" s="29">
+      <c r="A7" t="n">
         <v>6.0</v>
       </c>
-      <c r="B7" t="s" s="30">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s" s="31">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s" s="32">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s" s="33">
+      <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="s" s="34">
+      <c r="E7" t="s">
         <v>34</v>
       </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
       <c r="G7" t="s" s="27">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s" s="28">
-        <v>35</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="31">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="32">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s" s="33">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s" s="34">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s" s="35">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s" s="36">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s" s="29">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s" s="30">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1416,6 +2013,14 @@
     <hyperlink location="'ATU_TC_6'!A1" ref="F7"/>
     <hyperlink location="'ATU_TC_6'!A1" ref="G7"/>
     <hyperlink location="'ATU_TC_6'!A1" ref="H7"/>
+    <hyperlink location="'ATU_TC_7'!A1" ref="A8"/>
+    <hyperlink location="'ATU_TC_7'!A1" ref="B8"/>
+    <hyperlink location="'ATU_TC_7'!A1" ref="C8"/>
+    <hyperlink location="'ATU_TC_7'!A1" ref="D8"/>
+    <hyperlink location="'ATU_TC_7'!A1" ref="E8"/>
+    <hyperlink location="'ATU_TC_7'!A1" ref="F8"/>
+    <hyperlink location="'ATU_TC_7'!A1" ref="G8"/>
+    <hyperlink location="'ATU_TC_7'!A1" ref="H8"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1441,29 +2046,29 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
-      <c r="A1" t="s" s="37">
+      <c r="A1" t="s" s="39">
         <v>4</v>
       </c>
-      <c r="B1" t="s" s="38">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s" s="39">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s" s="40">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s" s="41">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s" s="42">
+      <c r="B1" t="s" s="40">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s" s="41">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s" s="42">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s" s="43">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s" s="44">
         <v>9</v>
       </c>
-      <c r="G1" t="s" s="43">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s" s="44">
-        <v>41</v>
+      <c r="G1" t="s" s="45">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s" s="46">
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -1471,22 +2076,22 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H2"/>
     </row>
@@ -1495,22 +2100,22 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H3"/>
     </row>
@@ -1519,22 +2124,22 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H4"/>
     </row>
@@ -1543,22 +2148,22 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H5"/>
     </row>
@@ -1567,22 +2172,22 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H6"/>
     </row>
@@ -1591,22 +2196,22 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H7"/>
     </row>
@@ -1615,28 +2220,28 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="45">
-        <v>77</v>
+      <c r="A9" t="s" s="47">
+        <v>82</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
@@ -1677,34 +2282,34 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
-      <c r="A1" t="s" s="46">
+      <c r="A1" t="s" s="48">
         <v>4</v>
       </c>
-      <c r="B1" t="s" s="47">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s" s="48">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s" s="49">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s" s="50">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s" s="51">
+      <c r="B1" t="s" s="49">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s" s="50">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s" s="51">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s" s="52">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s" s="53">
         <v>9</v>
       </c>
-      <c r="G1" t="s" s="52">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s" s="53">
-        <v>41</v>
+      <c r="G1" t="s" s="54">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s" s="55">
+        <v>46</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="54">
-        <v>77</v>
+      <c r="A2" t="s" s="56">
+        <v>82</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -1728,7 +2333,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor indexed="10"/>
+    <tabColor indexed="17"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1745,145 +2350,49 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
-      <c r="A1" t="s" s="55">
+      <c r="A1" t="s" s="57">
         <v>4</v>
       </c>
-      <c r="B1" t="s" s="56">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s" s="57">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s" s="58">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s" s="59">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s" s="60">
+      <c r="B1" t="s" s="58">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s" s="59">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s" s="60">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s" s="61">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s" s="62">
         <v>9</v>
       </c>
-      <c r="G1" t="s" s="61">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s" s="62">
-        <v>41</v>
+      <c r="G1" t="s" s="63">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s" s="64">
+        <v>46</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A2" t="s" s="65">
+        <v>82</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
       <c r="H2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="63">
-        <v>77</v>
-      </c>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink location="'TestSuite'!A1" ref="A6"/>
+    <hyperlink location="'TestSuite'!A1" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1909,29 +2418,29 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
-      <c r="A1" t="s" s="64">
+      <c r="A1" t="s" s="66">
         <v>4</v>
       </c>
-      <c r="B1" t="s" s="65">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s" s="66">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s" s="67">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s" s="68">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s" s="69">
+      <c r="B1" t="s" s="67">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s" s="68">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s" s="69">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s" s="70">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s" s="71">
         <v>9</v>
       </c>
-      <c r="G1" t="s" s="70">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s" s="71">
-        <v>41</v>
+      <c r="G1" t="s" s="72">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s" s="73">
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -1939,43 +2448,787 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>90</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
         <v>91</v>
       </c>
-      <c r="E2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
         <v>93</v>
       </c>
-      <c r="G2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="72">
-        <v>77</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" t="s">
+        <v>184</v>
+      </c>
+      <c r="G31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s">
+        <v>185</v>
+      </c>
+      <c r="G32" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33" t="s">
+        <v>183</v>
+      </c>
+      <c r="E33" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" t="s">
+        <v>187</v>
+      </c>
+      <c r="G33" t="s">
+        <v>188</v>
+      </c>
+      <c r="H33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="74">
+        <v>82</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A34:H34"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+    <hyperlink location="'TestSuite'!A1" ref="A34"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2001,29 +3254,29 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
-      <c r="A1" t="s" s="73">
+      <c r="A1" t="s" s="75">
         <v>4</v>
       </c>
-      <c r="B1" t="s" s="74">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s" s="75">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s" s="76">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s" s="77">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s" s="78">
+      <c r="B1" t="s" s="76">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s" s="77">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s" s="78">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s" s="79">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s" s="80">
         <v>9</v>
       </c>
-      <c r="G1" t="s" s="79">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s" s="80">
-        <v>41</v>
+      <c r="G1" t="s" s="81">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s" s="82">
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -2031,43 +3284,787 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>90</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
         <v>91</v>
       </c>
-      <c r="E2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
         <v>94</v>
       </c>
-      <c r="G2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="81">
-        <v>77</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>196</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" t="s">
+        <v>199</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>200</v>
+      </c>
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" t="s">
+        <v>209</v>
+      </c>
+      <c r="G27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" t="s">
+        <v>210</v>
+      </c>
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" t="s">
+        <v>211</v>
+      </c>
+      <c r="G29" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
+        <v>212</v>
+      </c>
+      <c r="G30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" t="s">
+        <v>184</v>
+      </c>
+      <c r="G31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s">
+        <v>213</v>
+      </c>
+      <c r="G32" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33" t="s">
+        <v>183</v>
+      </c>
+      <c r="E33" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" t="s">
+        <v>187</v>
+      </c>
+      <c r="G33" t="s">
+        <v>188</v>
+      </c>
+      <c r="H33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="83">
+        <v>82</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A34:H34"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+    <hyperlink location="'TestSuite'!A1" ref="A34"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2093,29 +4090,29 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
-      <c r="A1" t="s" s="82">
+      <c r="A1" t="s" s="84">
         <v>4</v>
       </c>
-      <c r="B1" t="s" s="83">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s" s="84">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s" s="85">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s" s="86">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s" s="87">
+      <c r="B1" t="s" s="85">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s" s="86">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s" s="87">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s" s="88">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s" s="89">
         <v>9</v>
       </c>
-      <c r="G1" t="s" s="88">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s" s="89">
-        <v>41</v>
+      <c r="G1" t="s" s="90">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s" s="91">
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -2123,43 +4120,1623 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>90</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
         <v>91</v>
       </c>
-      <c r="E2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
         <v>95</v>
       </c>
-      <c r="G2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="90">
-        <v>77</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" t="s">
+        <v>218</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" t="s">
+        <v>220</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>221</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" t="s">
+        <v>222</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>223</v>
+      </c>
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" t="s">
+        <v>224</v>
+      </c>
+      <c r="G19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>226</v>
+      </c>
+      <c r="G21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" t="s">
+        <v>228</v>
+      </c>
+      <c r="G22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" t="s">
+        <v>229</v>
+      </c>
+      <c r="G23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" t="s">
+        <v>231</v>
+      </c>
+      <c r="G27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" t="s">
+        <v>232</v>
+      </c>
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" t="s">
+        <v>233</v>
+      </c>
+      <c r="G29" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
+        <v>234</v>
+      </c>
+      <c r="G30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" t="s">
+        <v>235</v>
+      </c>
+      <c r="G31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s">
+        <v>236</v>
+      </c>
+      <c r="G32" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33" t="s">
+        <v>183</v>
+      </c>
+      <c r="E33" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" t="s">
+        <v>187</v>
+      </c>
+      <c r="G33" t="s">
+        <v>188</v>
+      </c>
+      <c r="H33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="92">
+        <v>82</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A34:H34"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+    <hyperlink location="'TestSuite'!A1" ref="A34"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.00390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s" s="93">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="94">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s" s="95">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s" s="96">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s" s="97">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s" s="98">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="99">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s" s="100">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" t="s">
+        <v>242</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>202</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" t="s">
+        <v>243</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" t="s">
+        <v>245</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>246</v>
+      </c>
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" t="s">
+        <v>247</v>
+      </c>
+      <c r="D20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>248</v>
+      </c>
+      <c r="G21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" t="s">
+        <v>249</v>
+      </c>
+      <c r="G22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" t="s">
+        <v>250</v>
+      </c>
+      <c r="G23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" t="s">
+        <v>251</v>
+      </c>
+      <c r="G24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" t="s">
+        <v>252</v>
+      </c>
+      <c r="G25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" t="s">
+        <v>254</v>
+      </c>
+      <c r="G27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" t="s">
+        <v>255</v>
+      </c>
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" t="s">
+        <v>256</v>
+      </c>
+      <c r="G29" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
+        <v>257</v>
+      </c>
+      <c r="G30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s">
+        <v>258</v>
+      </c>
+      <c r="G32" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33" t="s">
+        <v>183</v>
+      </c>
+      <c r="E33" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" t="s">
+        <v>187</v>
+      </c>
+      <c r="G33" t="s">
+        <v>188</v>
+      </c>
+      <c r="H33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="101">
+        <v>82</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A34:H34"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'TestSuite'!A1" ref="A34"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
